--- a/src/Presentation/CTM.Win/DataTemplate/Entrust/GuoTai_C.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/Entrust/GuoTai_C.xlsx
@@ -16,27 +16,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>交易类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>日内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>交易类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>波段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +48,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -384,7 +391,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -392,14 +399,14 @@
     <col min="2" max="2" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="str">
-        <f>"委托日期"</f>
-        <v>委托日期</v>
+        <f>"成交日期"</f>
+        <v>成交日期</v>
       </c>
       <c r="B1" s="1" t="str">
-        <f>"委托时间"</f>
-        <v>委托时间</v>
+        <f>"成交时间"</f>
+        <v>成交时间</v>
       </c>
       <c r="C1" s="1" t="str">
         <f>"证券代码"</f>
@@ -426,201 +433,198 @@
         <v>委托编号</v>
       </c>
       <c r="I1" s="1" t="str">
+        <f>"成交价格"</f>
+        <v>成交价格</v>
+      </c>
+      <c r="J1" s="1" t="str">
         <f>"成交数量"</f>
         <v>成交数量</v>
       </c>
-      <c r="J1" s="1" t="str">
-        <f>"撤单数量"</f>
-        <v>撤单数量</v>
-      </c>
       <c r="K1" s="1" t="str">
-        <f>"状态说明"</f>
-        <v>状态说明</v>
+        <f>"成交金额"</f>
+        <v>成交金额</v>
       </c>
       <c r="L1" s="1" t="str">
-        <f>"撤单标志"</f>
-        <v>撤单标志</v>
+        <f>"成交编号"</f>
+        <v>成交编号</v>
       </c>
       <c r="M1" s="1" t="str">
         <f>"股东代码"</f>
         <v>股东代码</v>
       </c>
       <c r="N1" s="1" t="str">
-        <f>"操作日期"</f>
-        <v>操作日期</v>
-      </c>
-      <c r="O1" t="s">
+        <f>"状态说明"</f>
+        <v>状态说明</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="str">
+        <f t="shared" ref="A2:A4" si="0">"20161223"</f>
+        <v>20161223</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>"10:07:41"</f>
+        <v>10:07:41</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f t="shared" ref="C2:C4" si="1">"601985"</f>
+        <v>601985</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f t="shared" ref="D2:D4" si="2">"中国核电"</f>
+        <v>中国核电</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f t="shared" ref="E2:E3" si="3">"普通买入"</f>
+        <v>普通买入</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7.05</v>
+      </c>
+      <c r="G2" s="1">
+        <v>200000</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f t="shared" ref="H2:H3" si="4">"34427"</f>
+        <v>34427</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7.05</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>70500</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f>"2481851"</f>
+        <v>2481851</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f t="shared" ref="M2:M4" si="5">"E042902565"</f>
+        <v>E042902565</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f t="shared" ref="N2:N4" si="6">"普通成交"</f>
+        <v>普通成交</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A4" si="0">"20160804"</f>
-        <v>20160804</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f>"09:38:23"</f>
-        <v>09:38:23</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>"002038"</f>
-        <v>002038</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f>"双鹭药业"</f>
-        <v>双鹭药业</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f>"融资买入"</f>
-        <v>融资买入</v>
-      </c>
-      <c r="F2" s="1">
-        <v>31.52</v>
-      </c>
-      <c r="G2" s="1">
-        <v>20000</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f>"11654"</f>
-        <v>11654</v>
-      </c>
-      <c r="I2" s="1">
-        <v>20000</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="str">
-        <f>"已成"</f>
-        <v>已成</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <f t="shared" ref="L2:L4" si="1">"正常"</f>
-        <v>正常</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <f t="shared" ref="M2:M4" si="2">"0604291857"</f>
-        <v>0604291857</v>
-      </c>
-      <c r="N2" s="1" t="str">
-        <f t="shared" ref="N2:N4" si="3">"20160804"</f>
-        <v>20160804</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>20160804</v>
+        <v>20161223</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>"09:42:27"</f>
-        <v>09:42:27</v>
+        <f>"10:07:42"</f>
+        <v>10:07:42</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>"002038"</f>
-        <v>002038</v>
+        <f t="shared" si="1"/>
+        <v>601985</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>"双鹭药业"</f>
-        <v>双鹭药业</v>
+        <f t="shared" si="2"/>
+        <v>中国核电</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>"融资买入"</f>
-        <v>融资买入</v>
+        <f t="shared" si="3"/>
+        <v>普通买入</v>
       </c>
       <c r="F3" s="1">
-        <v>31.45</v>
+        <v>7.05</v>
       </c>
       <c r="G3" s="1">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f>"14419"</f>
-        <v>14419</v>
+        <f t="shared" si="4"/>
+        <v>34427</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>7.05</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="str">
-        <f>"已成"</f>
-        <v>已成</v>
+        <v>17000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>119850</v>
       </c>
       <c r="L3" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>正常</v>
+        <f>"2482076"</f>
+        <v>2482076</v>
       </c>
       <c r="M3" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0604291857</v>
+        <f t="shared" si="5"/>
+        <v>E042902565</v>
       </c>
       <c r="N3" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>20160804</v>
-      </c>
-      <c r="O3" t="s">
+        <f t="shared" si="6"/>
+        <v>普通成交</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>20160804</v>
+        <v>20161223</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>"09:43:03"</f>
-        <v>09:43:03</v>
+        <f>"10:13:39"</f>
+        <v>10:13:39</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>"002038"</f>
-        <v>002038</v>
+        <f t="shared" si="1"/>
+        <v>601985</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>"双鹭药业"</f>
-        <v>双鹭药业</v>
+        <f t="shared" si="2"/>
+        <v>中国核电</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>"融资买入"</f>
-        <v>融资买入</v>
+        <f t="shared" ref="E4" si="7">"普通卖出"</f>
+        <v>普通卖出</v>
       </c>
       <c r="F4" s="1">
-        <v>31.46</v>
+        <v>7.05</v>
       </c>
       <c r="G4" s="1">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="H4" s="1" t="str">
-        <f>"14830"</f>
-        <v>14830</v>
+        <f t="shared" ref="H4" si="8">"45477"</f>
+        <v>45477</v>
       </c>
       <c r="I4" s="1">
-        <v>120000</v>
+        <v>7.05</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="str">
-        <f>"已成"</f>
-        <v>已成</v>
+        <v>1200</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8460</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>正常</v>
+        <f>"2766956"</f>
+        <v>2766956</v>
       </c>
       <c r="M4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>0604291857</v>
+        <f t="shared" si="5"/>
+        <v>E042902565</v>
       </c>
       <c r="N4" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>20160804</v>
-      </c>
-      <c r="O4" t="s">
+        <f t="shared" si="6"/>
+        <v>普通成交</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/Presentation/CTM.Win/DataTemplate/Entrust/GuoTai_C.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/Entrust/GuoTai_C.xlsx
@@ -14,29 +14,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+  <si>
+    <t>委托日期</t>
+  </si>
+  <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券名称</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>委托价格</t>
+  </si>
+  <si>
+    <t>委托数量</t>
+  </si>
+  <si>
+    <t>委托时间</t>
+  </si>
+  <si>
+    <t>成交数量</t>
+  </si>
+  <si>
+    <t>成交均价</t>
+  </si>
+  <si>
+    <t>委托序号</t>
+  </si>
+  <si>
+    <t>交易市场</t>
+  </si>
+  <si>
+    <t>股东帐户</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>成交金额</t>
+  </si>
+  <si>
+    <t>帝王洁具</t>
+  </si>
+  <si>
+    <t>普通买入</t>
+  </si>
+  <si>
+    <t>深圳Ａ股</t>
+  </si>
+  <si>
+    <t>部撤</t>
+  </si>
+  <si>
+    <t>普通卖出</t>
+  </si>
+  <si>
+    <t>已成</t>
+  </si>
+  <si>
+    <t>交易类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>日内</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>波段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,13 +108,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -79,9 +132,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -391,7 +447,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -400,232 +456,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="str">
-        <f>"成交日期"</f>
-        <v>成交日期</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <f>"成交时间"</f>
-        <v>成交时间</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <f>"证券代码"</f>
-        <v>证券代码</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <f>"证券名称"</f>
-        <v>证券名称</v>
-      </c>
-      <c r="E1" s="1" t="str">
-        <f>"买卖标志"</f>
-        <v>买卖标志</v>
-      </c>
-      <c r="F1" s="1" t="str">
-        <f>"委托价格"</f>
-        <v>委托价格</v>
-      </c>
-      <c r="G1" s="1" t="str">
-        <f>"委托数量"</f>
-        <v>委托数量</v>
-      </c>
-      <c r="H1" s="1" t="str">
-        <f>"委托编号"</f>
-        <v>委托编号</v>
-      </c>
-      <c r="I1" s="1" t="str">
-        <f>"成交价格"</f>
-        <v>成交价格</v>
-      </c>
-      <c r="J1" s="1" t="str">
-        <f>"成交数量"</f>
-        <v>成交数量</v>
-      </c>
-      <c r="K1" s="1" t="str">
-        <f>"成交金额"</f>
-        <v>成交金额</v>
-      </c>
-      <c r="L1" s="1" t="str">
-        <f>"成交编号"</f>
-        <v>成交编号</v>
-      </c>
-      <c r="M1" s="1" t="str">
-        <f>"股东代码"</f>
-        <v>股东代码</v>
-      </c>
-      <c r="N1" s="1" t="str">
-        <f>"状态说明"</f>
-        <v>状态说明</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A4" si="0">"20161223"</f>
-        <v>20161223</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f>"10:07:41"</f>
-        <v>10:07:41</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f t="shared" ref="C2:C4" si="1">"601985"</f>
-        <v>601985</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D4" si="2">"中国核电"</f>
-        <v>中国核电</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:E3" si="3">"普通买入"</f>
-        <v>普通买入</v>
+      <c r="A2" s="1">
+        <v>20170208</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2798</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>52.12</v>
       </c>
       <c r="F2" s="1">
-        <v>7.05</v>
-      </c>
-      <c r="G2" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H2" s="1" t="str">
-        <f t="shared" ref="H2:H3" si="4">"34427"</f>
-        <v>34427</v>
+        <v>7700</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.42017361111111112</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6700</v>
       </c>
       <c r="I2" s="1">
-        <v>7.05</v>
+        <v>52.12</v>
       </c>
       <c r="J2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="K2" s="1">
-        <v>70500</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <f>"2481851"</f>
-        <v>2481851</v>
-      </c>
-      <c r="M2" s="1" t="str">
-        <f t="shared" ref="M2:M4" si="5">"E042902565"</f>
-        <v>E042902565</v>
-      </c>
-      <c r="N2" s="1" t="str">
-        <f t="shared" ref="N2:N4" si="6">"普通成交"</f>
-        <v>普通成交</v>
+        <v>30678</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1">
+        <v>604291857</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1">
+        <v>349204</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>20161223</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <f>"10:07:42"</f>
-        <v>10:07:42</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>601985</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>中国核电</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>普通买入</v>
+      <c r="A3" s="1">
+        <v>20170208</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2798</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <v>52.65</v>
       </c>
       <c r="F3" s="1">
-        <v>7.05</v>
-      </c>
-      <c r="G3" s="1">
-        <v>200000</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>34427</v>
+        <v>1000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.4261921296296296</v>
+      </c>
+      <c r="H3" s="1">
+        <v>200</v>
       </c>
       <c r="I3" s="1">
-        <v>7.05</v>
+        <v>52.65</v>
       </c>
       <c r="J3" s="1">
-        <v>17000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>119850</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <f>"2482076"</f>
-        <v>2482076</v>
-      </c>
-      <c r="M3" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>E042902565</v>
-      </c>
-      <c r="N3" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>普通成交</v>
+        <v>35737</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1">
+        <v>604291857</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="1">
+        <v>10530</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>20161223</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <f>"10:13:39"</f>
-        <v>10:13:39</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>601985</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>中国核电</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" ref="E4" si="7">"普通卖出"</f>
-        <v>普通卖出</v>
+      <c r="A4" s="1">
+        <v>20170208</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2798</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>52.36</v>
       </c>
       <c r="F4" s="1">
-        <v>7.05</v>
-      </c>
-      <c r="G4" s="1">
-        <v>50000</v>
-      </c>
-      <c r="H4" s="1" t="str">
-        <f t="shared" ref="H4" si="8">"45477"</f>
-        <v>45477</v>
+        <v>12000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.4303819444444445</v>
+      </c>
+      <c r="H4" s="1">
+        <v>12000</v>
       </c>
       <c r="I4" s="1">
-        <v>7.05</v>
+        <v>52.36</v>
       </c>
       <c r="J4" s="1">
-        <v>1200</v>
-      </c>
-      <c r="K4" s="1">
-        <v>8460</v>
-      </c>
-      <c r="L4" s="1" t="str">
-        <f>"2766956"</f>
-        <v>2766956</v>
-      </c>
-      <c r="M4" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>E042902565</v>
-      </c>
-      <c r="N4" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>普通成交</v>
+        <v>38913</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="1">
+        <v>604291857</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="1">
+        <v>628320</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/Presentation/CTM.Win/DataTemplate/Entrust/GuoTai_C.xlsx
+++ b/src/Presentation/CTM.Win/DataTemplate/Entrust/GuoTai_C.xlsx
@@ -14,89 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
-  <si>
-    <t>委托日期</t>
-  </si>
-  <si>
-    <t>证券代码</t>
-  </si>
-  <si>
-    <t>证券名称</t>
-  </si>
-  <si>
-    <t>操作</t>
-  </si>
-  <si>
-    <t>委托价格</t>
-  </si>
-  <si>
-    <t>委托数量</t>
-  </si>
-  <si>
-    <t>委托时间</t>
-  </si>
-  <si>
-    <t>成交数量</t>
-  </si>
-  <si>
-    <t>成交均价</t>
-  </si>
-  <si>
-    <t>委托序号</t>
-  </si>
-  <si>
-    <t>交易市场</t>
-  </si>
-  <si>
-    <t>股东帐户</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>成交金额</t>
-  </si>
-  <si>
-    <t>帝王洁具</t>
-  </si>
-  <si>
-    <t>普通买入</t>
-  </si>
-  <si>
-    <t>深圳Ａ股</t>
-  </si>
-  <si>
-    <t>部撤</t>
-  </si>
-  <si>
-    <t>普通卖出</t>
-  </si>
-  <si>
-    <t>已成</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>交易类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>波段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +48,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -132,12 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,200 +391,243 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1" t="str">
+        <f>"成交日期"</f>
+        <v>成交日期</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>"成交时间"</f>
+        <v>成交时间</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>"证券代码"</f>
+        <v>证券代码</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>"证券名称"</f>
+        <v>证券名称</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f>"买卖标志"</f>
+        <v>买卖标志</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <f>"委托价格"</f>
+        <v>委托价格</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f>"委托数量"</f>
+        <v>委托数量</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f>"委托编号"</f>
+        <v>委托编号</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f>"成交价格"</f>
+        <v>成交价格</v>
+      </c>
+      <c r="J1" s="1" t="str">
+        <f>"成交数量"</f>
+        <v>成交数量</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <f>"成交金额"</f>
+        <v>成交金额</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <f>"成交编号"</f>
+        <v>成交编号</v>
+      </c>
+      <c r="M1" s="1" t="str">
+        <f>"股东代码"</f>
+        <v>股东代码</v>
+      </c>
+      <c r="N1" s="1" t="str">
+        <f>"状态说明"</f>
+        <v>状态说明</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>20170208</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2798</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1">
-        <v>52.12</v>
+      <c r="A2" s="1" t="str">
+        <f t="shared" ref="A2:A4" si="0">"20170809"</f>
+        <v>20170809</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>"09:43:41"</f>
+        <v>09:43:41</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>"002139"</f>
+        <v>002139</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <f>"拓邦股份"</f>
+        <v>拓邦股份</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>"普通买入"</f>
+        <v>普通买入</v>
       </c>
       <c r="F2" s="1">
-        <v>7700</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.42017361111111112</v>
-      </c>
-      <c r="H2" s="1">
-        <v>6700</v>
+        <v>11.46</v>
+      </c>
+      <c r="G2" s="1">
+        <v>50000</v>
+      </c>
+      <c r="H2" s="1" t="str">
+        <f>"22424"</f>
+        <v>22424</v>
       </c>
       <c r="I2" s="1">
-        <v>52.12</v>
+        <v>11.45</v>
       </c>
       <c r="J2" s="1">
-        <v>30678</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1">
-        <v>604291857</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1">
-        <v>349204</v>
+        <v>33200</v>
+      </c>
+      <c r="K2" s="1">
+        <v>380140</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f>"0103000002122316"</f>
+        <v>0103000002122316</v>
+      </c>
+      <c r="M2" s="1" t="str">
+        <f t="shared" ref="M2:M4" si="1">"0604291857"</f>
+        <v>0604291857</v>
+      </c>
+      <c r="N2" s="1" t="str">
+        <f t="shared" ref="N2:N4" si="2">"普通成交"</f>
+        <v>普通成交</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>20170208</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2798</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1">
-        <v>52.65</v>
+      <c r="A3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>20170809</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>"09:43:41"</f>
+        <v>09:43:41</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>"002139"</f>
+        <v>002139</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>"拓邦股份"</f>
+        <v>拓邦股份</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>"普通买入"</f>
+        <v>普通买入</v>
       </c>
       <c r="F3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.4261921296296296</v>
-      </c>
-      <c r="H3" s="1">
+        <v>11.46</v>
+      </c>
+      <c r="G3" s="1">
+        <v>50000</v>
+      </c>
+      <c r="H3" s="1" t="str">
+        <f>"22424"</f>
+        <v>22424</v>
+      </c>
+      <c r="I3" s="1">
+        <v>11.46</v>
+      </c>
+      <c r="J3" s="1">
         <v>200</v>
       </c>
-      <c r="I3" s="1">
-        <v>52.65</v>
-      </c>
-      <c r="J3" s="1">
-        <v>35737</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1">
-        <v>604291857</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="1">
-        <v>10530</v>
+      <c r="K3" s="1">
+        <v>2292</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f>"0103000002122318"</f>
+        <v>0103000002122318</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0604291857</v>
+      </c>
+      <c r="N3" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>普通成交</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>20170208</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2798</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1">
-        <v>52.36</v>
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>20170809</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>"09:43:41"</f>
+        <v>09:43:41</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>"002139"</f>
+        <v>002139</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f>"拓邦股份"</f>
+        <v>拓邦股份</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>"普通买入"</f>
+        <v>普通买入</v>
       </c>
       <c r="F4" s="1">
-        <v>12000</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.4303819444444445</v>
-      </c>
-      <c r="H4" s="1">
-        <v>12000</v>
+        <v>11.46</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50000</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>"22424"</f>
+        <v>22424</v>
       </c>
       <c r="I4" s="1">
-        <v>52.36</v>
+        <v>11.46</v>
       </c>
       <c r="J4" s="1">
-        <v>38913</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="1">
-        <v>604291857</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="1">
-        <v>628320</v>
+        <v>500</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5730</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>"0103000002122320"</f>
+        <v>0103000002122320</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0604291857</v>
+      </c>
+      <c r="N4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>普通成交</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
